--- a/data/spring-cloud-shop/shop-activity-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-activity-api_structure.xlsx
@@ -1311,192 +1311,192 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>assembleActivityMemberMapper</t>
+  </si>
+  <si>
     <t>activityService</t>
   </si>
   <si>
-    <t>assembleActivityMemberMapper</t>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>beginTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>beginTime</t>
-  </si>
-  <si>
     <t>templateId</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>shareChannel</t>
+  </si>
+  <si>
+    <t>bannerStatus</t>
   </si>
   <si>
     <t>bannerUrl</t>
   </si>
   <si>
+    <t>shareSubtitle</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>shareUrl</t>
+  </si>
+  <si>
+    <t>shareIcon</t>
+  </si>
+  <si>
+    <t>shareTitle</t>
+  </si>
+  <si>
+    <t>bannerClickUrl</t>
+  </si>
+  <si>
     <t>bannerType</t>
   </si>
   <si>
-    <t>shareChannel</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>shareUrl</t>
-  </si>
-  <si>
-    <t>shareSubtitle</t>
-  </si>
-  <si>
-    <t>bannerStatus</t>
-  </si>
-  <si>
-    <t>shareIcon</t>
-  </si>
-  <si>
-    <t>shareTitle</t>
-  </si>
-  <si>
-    <t>bannerClickUrl</t>
+    <t>state</t>
+  </si>
+  <si>
+    <t>ruleName</t>
+  </si>
+  <si>
+    <t>orderAmount</t>
   </si>
   <si>
     <t>activityId</t>
   </si>
   <si>
-    <t>ruleName</t>
-  </si>
-  <si>
-    <t>orderAmount</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
     <t>couponTemplateService</t>
   </si>
   <si>
+    <t>rewardType</t>
+  </si>
+  <si>
     <t>inviteUserId</t>
   </si>
   <si>
-    <t>rewardType</t>
+    <t>dateTimes</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>dateTimes</t>
-  </si>
-  <si>
     <t>assembleService</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
+    <t>systemConfigClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.platform.client.SystemConfigClient</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>systemConfigClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.platform.client.SystemConfigClient</t>
+    <t>ruleId</t>
   </si>
   <si>
     <t>goodsId</t>
   </si>
   <si>
-    <t>ruleId</t>
-  </si>
-  <si>
     <t>appDiscountCouponService</t>
   </si>
   <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>TIMED</t>
+  </si>
+  <si>
+    <t>discountCouponMapper</t>
+  </si>
+  <si>
+    <t>ABNORMAL</t>
+  </si>
+  <si>
+    <t>THROWN</t>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
     <t>result</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>UNCOMPENSATE</t>
+  </si>
+  <si>
+    <t>INTERRUPTIBLE</t>
+  </si>
+  <si>
+    <t>RAN</t>
+  </si>
+  <si>
+    <t>POOLSUBMIT</t>
+  </si>
+  <si>
+    <t>SMASK</t>
+  </si>
+  <si>
     <t>discountCouponTemplate</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>UNCOMPENSATE</t>
-  </si>
-  <si>
-    <t>INTERRUPTIBLE</t>
-  </si>
-  <si>
-    <t>discountCouponMapper</t>
-  </si>
-  <si>
-    <t>ABNORMAL</t>
-  </si>
-  <si>
-    <t>THROWN</t>
-  </si>
-  <si>
-    <t>POOLSUBMIT</t>
-  </si>
-  <si>
-    <t>SMASK</t>
-  </si>
-  <si>
-    <t>TIMED</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>RAN</t>
-  </si>
-  <si>
-    <t>CAPACITY</t>
-  </si>
-  <si>
     <t>assembleRuleService</t>
   </si>
   <si>
     <t>useType</t>
   </si>
   <si>
+    <t>activityMapper</t>
+  </si>
+  <si>
+    <t>exchangeActivityRuleMapper</t>
+  </si>
+  <si>
     <t>exchangeActivityMembersMapper</t>
   </si>
   <si>
-    <t>exchangeActivityRuleMapper</t>
-  </si>
-  <si>
-    <t>activityMapper</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>integral</t>
   </si>
   <si>
+    <t>assembleCount</t>
+  </si>
+  <si>
     <t>serverStatus</t>
   </si>
   <si>
     <t>purchaseLimit</t>
   </si>
   <si>
-    <t>assembleCount</t>
-  </si>
-  <si>
     <t>activityType</t>
   </si>
   <si>
@@ -1509,15 +1509,15 @@
     <t>bannerService</t>
   </si>
   <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>recordId</t>
   </si>
   <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>exchangeService</t>
   </si>
   <si>
@@ -1533,21 +1533,21 @@
     <t>discountCouponTemplateMapper</t>
   </si>
   <si>
+    <t>redisTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.data.redis.core.RedisTemplate</t>
+  </si>
+  <si>
+    <t>userClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.user.client.UserClient</t>
+  </si>
+  <si>
     <t>activityMQ</t>
   </si>
   <si>
-    <t>redisTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.data.redis.core.RedisTemplate</t>
-  </si>
-  <si>
-    <t>userClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.user.client.UserClient</t>
-  </si>
-  <si>
     <t>BATCH_COUNT</t>
   </si>
   <si>
@@ -1572,10 +1572,10 @@
     <t>quick.pager.shop.platform.client.SystemConfigDetailClient</t>
   </si>
   <si>
+    <t>createTime</t>
+  </si>
+  <si>
     <t>goodsAmount</t>
-  </si>
-  <si>
-    <t>createTime</t>
   </si>
   <si>
     <t>goodsName</t>
@@ -23973,7 +23973,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>146</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -23987,7 +23987,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>285</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -24001,7 +24001,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5">
@@ -24009,7 +24009,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>19</v>
@@ -24023,7 +24023,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>19</v>
@@ -24037,7 +24037,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>19</v>
@@ -24051,13 +24051,13 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -24065,13 +24065,13 @@
         <v>34</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -24079,13 +24079,13 @@
         <v>34</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>438</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -24113,7 +24113,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -24149,13 +24149,13 @@
         <v>53</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16">
@@ -24163,7 +24163,7 @@
         <v>53</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>19</v>
@@ -24177,13 +24177,13 @@
         <v>53</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -24191,7 +24191,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>19</v>
@@ -24205,7 +24205,7 @@
         <v>53</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>19</v>
@@ -24219,13 +24219,13 @@
         <v>53</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -24253,7 +24253,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -24289,13 +24289,13 @@
         <v>75</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26">
@@ -24309,7 +24309,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -24331,13 +24331,13 @@
         <v>86</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -24351,7 +24351,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -24359,7 +24359,7 @@
         <v>86</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>19</v>
@@ -24373,13 +24373,13 @@
         <v>86</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -24393,7 +24393,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33">
@@ -24401,13 +24401,13 @@
         <v>93</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>438</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -24415,7 +24415,7 @@
         <v>93</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>19</v>
@@ -24429,13 +24429,13 @@
         <v>93</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>33</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36">
@@ -24457,13 +24457,13 @@
         <v>99</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>438</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -24471,7 +24471,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>19</v>
@@ -24485,13 +24485,13 @@
         <v>99</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>89</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40">
@@ -24527,7 +24527,7 @@
         <v>115</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>19</v>
@@ -24541,13 +24541,13 @@
         <v>115</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44">
@@ -24555,7 +24555,7 @@
         <v>115</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>19</v>
@@ -24583,13 +24583,13 @@
         <v>119</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>438</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -24597,13 +24597,13 @@
         <v>119</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>41</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48">
@@ -24611,7 +24611,7 @@
         <v>119</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>19</v>
@@ -24639,13 +24639,13 @@
         <v>125</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>438</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
@@ -24653,7 +24653,7 @@
         <v>125</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>19</v>
@@ -24667,13 +24667,13 @@
         <v>125</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>41</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53">
@@ -24681,13 +24681,13 @@
         <v>127</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54">
@@ -24695,7 +24695,7 @@
         <v>131</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>19</v>
@@ -24709,13 +24709,13 @@
         <v>131</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>438</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
@@ -24723,13 +24723,13 @@
         <v>131</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>41</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57">
@@ -24737,13 +24737,13 @@
         <v>131</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
@@ -24751,7 +24751,7 @@
         <v>131</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>19</v>
@@ -24765,13 +24765,13 @@
         <v>131</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -24799,7 +24799,7 @@
         <v>149</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -24810,10 +24810,10 @@
         <v>468</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>326</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -24821,13 +24821,13 @@
         <v>147</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -24835,13 +24835,13 @@
         <v>147</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>23</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65">
@@ -24849,7 +24849,7 @@
         <v>147</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>149</v>
@@ -24863,13 +24863,13 @@
         <v>147</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>280</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
@@ -24877,13 +24877,13 @@
         <v>147</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>23</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68">
@@ -24891,13 +24891,13 @@
         <v>147</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>461</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
@@ -24905,13 +24905,13 @@
         <v>147</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>149</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -24919,13 +24919,13 @@
         <v>147</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -24933,13 +24933,13 @@
         <v>147</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>438</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
@@ -24975,7 +24975,7 @@
         <v>147</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>149</v>
@@ -24989,7 +24989,7 @@
         <v>147</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>149</v>
@@ -25003,13 +25003,13 @@
         <v>147</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>23</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77">
@@ -25017,13 +25017,13 @@
         <v>147</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>23</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78">
@@ -25045,13 +25045,13 @@
         <v>211</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
@@ -25059,13 +25059,13 @@
         <v>211</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -25073,13 +25073,13 @@
         <v>211</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>41</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82">
@@ -25087,13 +25087,13 @@
         <v>215</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>146</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83">
@@ -25101,13 +25101,13 @@
         <v>215</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>254</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -25115,13 +25115,13 @@
         <v>215</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>31</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85">
@@ -25129,13 +25129,13 @@
         <v>215</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>287</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86">
@@ -25143,13 +25143,13 @@
         <v>223</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>438</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -25157,13 +25157,13 @@
         <v>223</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88">
@@ -25171,13 +25171,13 @@
         <v>223</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -25185,7 +25185,7 @@
         <v>223</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>19</v>
@@ -25199,13 +25199,13 @@
         <v>237</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>45</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91">
@@ -25213,7 +25213,7 @@
         <v>237</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>19</v>
@@ -25227,13 +25227,13 @@
         <v>237</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
@@ -25241,13 +25241,13 @@
         <v>237</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94">
@@ -25255,13 +25255,13 @@
         <v>237</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
@@ -25269,13 +25269,13 @@
         <v>237</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96">
@@ -25297,13 +25297,13 @@
         <v>113</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>252</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
@@ -25311,13 +25311,13 @@
         <v>113</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>492</v>
+        <v>435</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99">
@@ -25325,13 +25325,13 @@
         <v>113</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -25339,13 +25339,13 @@
         <v>113</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -25353,13 +25353,13 @@
         <v>113</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102">
@@ -25367,13 +25367,13 @@
         <v>113</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>45</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103">
@@ -25395,13 +25395,13 @@
         <v>262</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105">
@@ -25415,7 +25415,7 @@
         <v>19</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
@@ -25423,7 +25423,7 @@
         <v>264</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>19</v>
@@ -25437,13 +25437,13 @@
         <v>264</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -25451,13 +25451,13 @@
         <v>264</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109">
@@ -25465,7 +25465,7 @@
         <v>264</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>19</v>
@@ -25479,13 +25479,13 @@
         <v>264</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="111">
@@ -25493,13 +25493,13 @@
         <v>264</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -25521,7 +25521,7 @@
         <v>274</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>19</v>
@@ -25535,13 +25535,13 @@
         <v>409</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="115">
@@ -25563,13 +25563,13 @@
         <v>281</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117">
@@ -25577,7 +25577,7 @@
         <v>281</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>19</v>
@@ -25591,13 +25591,13 @@
         <v>281</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
@@ -25605,13 +25605,13 @@
         <v>281</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>438</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120">
@@ -25633,7 +25633,7 @@
         <v>419</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>19</v>
@@ -25647,7 +25647,7 @@
         <v>288</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>19</v>
@@ -25689,13 +25689,13 @@
         <v>296</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="126">
@@ -25703,7 +25703,7 @@
         <v>296</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>19</v>
@@ -25717,7 +25717,7 @@
         <v>296</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>19</v>
@@ -25731,7 +25731,7 @@
         <v>296</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>19</v>
@@ -25745,7 +25745,7 @@
         <v>298</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>19</v>
@@ -25759,7 +25759,7 @@
         <v>298</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>19</v>
@@ -25773,13 +25773,13 @@
         <v>298</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132">
@@ -25787,13 +25787,13 @@
         <v>300</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>320</v>
+        <v>463</v>
       </c>
     </row>
     <row r="133">
@@ -25801,13 +25801,13 @@
         <v>300</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134">
@@ -25815,13 +25815,13 @@
         <v>300</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="135">
@@ -25829,13 +25829,13 @@
         <v>300</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>461</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136">
@@ -25843,13 +25843,13 @@
         <v>300</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137">
@@ -25857,13 +25857,13 @@
         <v>309</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
@@ -25871,13 +25871,13 @@
         <v>309</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>438</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -25891,7 +25891,7 @@
         <v>19</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="140">
@@ -25899,13 +25899,13 @@
         <v>311</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>326</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
@@ -25913,13 +25913,13 @@
         <v>311</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>33</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142">
@@ -25927,13 +25927,13 @@
         <v>311</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>280</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143">
@@ -25941,7 +25941,7 @@
         <v>311</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>19</v>
@@ -25955,13 +25955,13 @@
         <v>311</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>505</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145">
@@ -25969,13 +25969,13 @@
         <v>311</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>461</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146">
@@ -25983,13 +25983,13 @@
         <v>311</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>507</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147">
@@ -25997,13 +25997,13 @@
         <v>311</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>23</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148">
@@ -26025,13 +26025,13 @@
         <v>322</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150">
@@ -26053,13 +26053,13 @@
         <v>324</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="152">
@@ -26067,13 +26067,13 @@
         <v>326</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>510</v>
+        <v>431</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>80</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153">
@@ -26081,13 +26081,13 @@
         <v>326</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154">
@@ -26109,13 +26109,13 @@
         <v>326</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156">
@@ -26123,13 +26123,13 @@
         <v>326</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157">
@@ -26137,13 +26137,13 @@
         <v>326</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>512</v>
+        <v>435</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158">
@@ -26151,13 +26151,13 @@
         <v>326</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159">
@@ -26165,13 +26165,13 @@
         <v>326</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160">
@@ -26179,13 +26179,13 @@
         <v>326</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161">
@@ -26193,13 +26193,13 @@
         <v>326</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162">
@@ -26207,7 +26207,7 @@
         <v>338</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>19</v>
@@ -26221,13 +26221,13 @@
         <v>352</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164">
@@ -26235,7 +26235,7 @@
         <v>352</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>19</v>
@@ -26249,7 +26249,7 @@
         <v>352</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>19</v>
@@ -26263,13 +26263,13 @@
         <v>352</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>438</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
@@ -26277,13 +26277,13 @@
         <v>354</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="168">
@@ -26291,13 +26291,13 @@
         <v>354</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169">
@@ -26305,13 +26305,13 @@
         <v>369</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170">
@@ -26319,13 +26319,13 @@
         <v>369</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171">
@@ -26333,7 +26333,7 @@
         <v>369</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>19</v>
@@ -26361,13 +26361,13 @@
         <v>369</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>438</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174">
@@ -26389,13 +26389,13 @@
         <v>369</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>516</v>
+        <v>452</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176">
@@ -26409,7 +26409,7 @@
         <v>19</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>252</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177">
@@ -26417,13 +26417,13 @@
         <v>369</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>12</v>
+        <v>432</v>
       </c>
     </row>
     <row r="178">
@@ -26431,7 +26431,7 @@
         <v>369</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>19</v>
@@ -26445,7 +26445,7 @@
         <v>369</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>518</v>
+        <v>437</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>19</v>
@@ -26459,13 +26459,13 @@
         <v>369</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
